--- a/Desarrollo/SOE/Gestion/SOE - CP.xlsx
+++ b/Desarrollo/SOE/Gestion/SOE - CP.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\Amezaga-Code\Desarrollo\SOE\Gestion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0120154A-C941-46F6-981B-7CE5A5E9670C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mioWTF5QCRiHh+tnhArHwakkc1SCA=="/>
@@ -291,70 +300,77 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="12">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -362,7 +378,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -372,7 +388,13 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -386,27 +408,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -416,90 +445,75 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -689,1266 +703,1347 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:Q1018"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.88"/>
-    <col customWidth="1" min="2" max="2" width="64.0"/>
-    <col customWidth="1" min="3" max="3" width="3.0"/>
-    <col customWidth="1" min="4" max="11" width="2.63"/>
-    <col customWidth="1" min="12" max="15" width="3.5"/>
-    <col customWidth="1" min="16" max="16" width="20.5"/>
-    <col customWidth="1" min="17" max="26" width="9.38"/>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="64" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
+    <col min="4" max="11" width="2.625" customWidth="1"/>
+    <col min="12" max="15" width="3.5" customWidth="1"/>
+    <col min="16" max="16" width="20.5" customWidth="1"/>
+    <col min="17" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:17" ht="18.75">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+    </row>
+    <row r="2" spans="2:17">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="2" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="2" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
-        <v>44132.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
+      <c r="C4" s="22">
+        <v>44132</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5">
-        <v>44232.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="6" t="s">
+      <c r="C5" s="23">
+        <v>44232</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+    </row>
+    <row r="6" spans="2:17" ht="14.25">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="2:17">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="9" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="10" t="s">
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="8"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="11" t="s">
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="10" t="s">
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="11" t="s">
+      <c r="Q9" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="10" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q10" s="8"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="9" t="s">
+      <c r="Q10" s="4">
+        <v>72.72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="10" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q11" s="8"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="12" t="s">
+      <c r="Q11" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="14.25">
+      <c r="B12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="14"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="15" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="26"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="16" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="8"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="17" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="10" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" s="8"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="17" t="s">
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="10" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="8"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="17" t="s">
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="10" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q17" s="8"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="17" t="s">
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="10" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Q18" s="8"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="17" t="s">
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="10" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" s="8"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="18" t="s">
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="10" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Q20" s="8"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="18" t="s">
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="10" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q21" s="8"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="18" t="s">
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="10" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Q22" s="8"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="18" t="s">
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="10" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Q23" s="8"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="18" t="s">
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="10" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q24" s="8"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="18" t="s">
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="10" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q25" s="8"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="16" t="s">
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="8"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="19" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="10" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Q27" s="8"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="18" t="s">
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="10" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Q28" s="8"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="17" t="s">
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="10" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Q29" s="8"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="20" t="s">
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="B30" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="8"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="18" t="s">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="B31" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="10" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Q31" s="8"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="19" t="s">
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="B32" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="10" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Q32" s="8"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="21" t="s">
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="8"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="22" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="18" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="10" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Q35" s="8"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="18" t="s">
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="10" t="s">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Q36" s="8"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="18" t="s">
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="10" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Q37" s="8"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="22" t="s">
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="23" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="10" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Q39" s="8"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="23" t="s">
+      <c r="Q39" s="4"/>
+    </row>
+    <row r="40" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B40" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="10" t="s">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Q40" s="8"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="23" t="s">
+      <c r="Q40" s="4"/>
+    </row>
+    <row r="41" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B41" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="10" t="s">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Q41" s="8"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="24" t="s">
+      <c r="Q41" s="4"/>
+    </row>
+    <row r="42" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B42" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="10" t="s">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Q42" s="8"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="24" t="s">
+      <c r="Q42" s="4"/>
+    </row>
+    <row r="43" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B43" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="10" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Q43" s="8"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="25" t="s">
+      <c r="Q43" s="4"/>
+    </row>
+    <row r="44" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B44" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="8"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="22" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="4"/>
+    </row>
+    <row r="45" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B45" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="8"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="23" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="4"/>
+    </row>
+    <row r="46" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B46" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="10" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="Q46" s="8"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="23" t="s">
+      <c r="Q46" s="4"/>
+    </row>
+    <row r="47" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B47" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="10" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="Q47" s="8"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="23" t="s">
+      <c r="Q47" s="4"/>
+    </row>
+    <row r="48" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B48" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="10" t="s">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="Q48" s="8"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="23" t="s">
+      <c r="Q48" s="4"/>
+    </row>
+    <row r="49" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B49" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="10" t="s">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="Q49" s="8"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="23" t="s">
+      <c r="Q49" s="4"/>
+    </row>
+    <row r="50" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B50" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="10" t="s">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="Q50" s="8"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="21" t="s">
+      <c r="Q50" s="4"/>
+    </row>
+    <row r="51" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B51" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="23" t="s">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+    </row>
+    <row r="52" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B52" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O52" s="8"/>
-      <c r="P52" s="10" t="s">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O52" s="4"/>
+      <c r="P52" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Q52" s="8"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="21" t="s">
+      <c r="Q52" s="4"/>
+    </row>
+    <row r="53" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B53" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="23" t="s">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+    </row>
+    <row r="54" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B54" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P54" s="10" t="s">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P54" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Q54" s="8"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="23" t="s">
+      <c r="Q54" s="4"/>
+    </row>
+    <row r="55" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B55" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P55" s="10" t="s">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P55" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Q55" s="8"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+      <c r="Q55" s="4"/>
+    </row>
+    <row r="56" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="57" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="58" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="59" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="60" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="61" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="62" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="63" spans="2:17" ht="15.75" customHeight="1"/>
+    <row r="64" spans="2:17" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -2905,16 +3000,14 @@
     <row r="1018" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B12:Q12"/>
     <mergeCell ref="B1:Q1"/>
     <mergeCell ref="C2:Q2"/>
     <mergeCell ref="C3:Q3"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="C5:Q5"/>
-    <mergeCell ref="B12:Q12"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Desarrollo/SOE/Gestion/SOE - CP.xlsx
+++ b/Desarrollo/SOE/Gestion/SOE - CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\Amezaga-Code\Desarrollo\SOE\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0120154A-C941-46F6-981B-7CE5A5E9670C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD06BE99-30BE-4C82-A349-DB7621025C60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t xml:space="preserve">Recurso </t>
   </si>
   <si>
-    <t>% de avance</t>
-  </si>
-  <si>
     <t>Gestion y Negocio:</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>Elaboracion de la especificacion de requisito 05: Enviar tarea</t>
   </si>
   <si>
-    <t>Elaboracion de la especificacion de requisito 06: Cancelar entrada de tarea</t>
-  </si>
-  <si>
     <t>Elaboracion de la especificacion de requisito 07: Ver calendario</t>
   </si>
   <si>
@@ -295,6 +289,12 @@
   </si>
   <si>
     <t>Monitoreo de los clientes</t>
+  </si>
+  <si>
+    <t>Elaboracion de la especificacion de requisito 06: Modificar tarea</t>
+  </si>
+  <si>
+    <t>Avance</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -477,6 +477,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -490,11 +495,19 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q64" sqref="Q64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -724,116 +737,117 @@
     <col min="4" max="11" width="2.625" customWidth="1"/>
     <col min="12" max="15" width="3.5" customWidth="1"/>
     <col min="16" max="16" width="20.5" customWidth="1"/>
-    <col min="17" max="26" width="9.375" customWidth="1"/>
+    <col min="17" max="17" width="9.375" style="29" customWidth="1"/>
+    <col min="18" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="18.75">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="2:17">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="25">
         <v>44132</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="2:17">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="26">
         <v>44232</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="2:17" ht="14.25">
       <c r="B6" s="2" t="s">
@@ -882,12 +896,12 @@
         <v>21</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:17">
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -903,14 +917,14 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="28"/>
     </row>
     <row r="8" spans="2:17">
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -925,21 +939,21 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" s="4">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:17">
       <c r="B9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -953,19 +967,19 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>100</v>
+        <v>25</v>
+      </c>
+      <c r="Q9" s="30">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:17">
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="4"/>
@@ -979,22 +993,22 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>72.72</v>
+        <v>28</v>
+      </c>
+      <c r="Q10" s="31">
+        <v>0.72719999999999996</v>
       </c>
     </row>
     <row r="11" spans="2:17">
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1007,35 +1021,35 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="14.25">
+      <c r="B12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="Q11" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="14.25">
-      <c r="B12" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="26"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="21"/>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1051,11 +1065,11 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="Q13" s="28"/>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1071,19 +1085,19 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="4"/>
+      <c r="Q14" s="28"/>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1095,21 +1109,23 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q15" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="Q15" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:17">
       <c r="B16" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="4"/>
@@ -1121,21 +1137,23 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="Q16" s="30">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="17" spans="2:17">
       <c r="B17" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1147,21 +1165,23 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="Q17" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1173,19 +1193,21 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q18" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="Q18" s="30">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1197,19 +1219,21 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="Q19" s="30">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="20" spans="2:17">
       <c r="B20" s="11" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="4"/>
@@ -1221,19 +1245,21 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q20" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="Q20" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="2:17">
       <c r="B21" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="4"/>
@@ -1245,19 +1271,21 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q21" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="Q21" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="2:17">
       <c r="B22" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="4"/>
@@ -1269,19 +1297,21 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q22" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q22" s="30">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="23" spans="2:17">
       <c r="B23" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="4"/>
@@ -1293,19 +1323,21 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q23" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q23" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="2:17">
       <c r="B24" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="4"/>
@@ -1317,19 +1349,21 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q24" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="Q24" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="2:17">
       <c r="B25" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="4"/>
@@ -1341,13 +1375,15 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q25" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="Q25" s="30">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="26" spans="2:17">
       <c r="B26" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1363,18 +1399,18 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="6"/>
-      <c r="Q26" s="4"/>
+      <c r="Q26" s="28"/>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="12" t="s">
-        <v>50</v>
+      <c r="B27" s="27" t="s">
+        <v>48</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -1385,20 +1421,22 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q27" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="Q27" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="2:17">
       <c r="B28" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="6"/>
       <c r="F28" s="4"/>
       <c r="G28" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -1409,13 +1447,15 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q28" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="Q28" s="31">
+        <v>0.5454</v>
+      </c>
     </row>
     <row r="29" spans="2:17">
       <c r="B29" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1423,7 +1463,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -1433,13 +1473,15 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q29" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="Q29" s="31">
+        <v>0.72719999999999996</v>
+      </c>
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1447,7 +1489,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -1457,11 +1499,11 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="4"/>
+      <c r="Q30" s="28"/>
     </row>
     <row r="31" spans="2:17">
       <c r="B31" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1469,7 +1511,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -1479,13 +1521,15 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q31" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="Q31" s="30">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1493,7 +1537,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -1503,13 +1547,15 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q32" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="Q32" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="2:17">
       <c r="B33" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1518,7 +1564,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="4"/>
       <c r="I33" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -1527,11 +1573,11 @@
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="6"/>
-      <c r="Q33" s="4"/>
+      <c r="Q33" s="28"/>
     </row>
     <row r="34" spans="2:17">
       <c r="B34" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1547,11 +1593,11 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
+      <c r="Q34" s="28"/>
     </row>
     <row r="35" spans="2:17">
       <c r="B35" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1560,7 +1606,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="4"/>
       <c r="I35" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -1569,13 +1615,15 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q35" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="Q35" s="30">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="36" spans="2:17">
       <c r="B36" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1584,7 +1632,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="4"/>
       <c r="I36" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -1593,13 +1641,15 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q36" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="Q36" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="2:17">
       <c r="B37" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1608,7 +1658,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="4"/>
       <c r="I37" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -1617,13 +1667,15 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q37" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="Q37" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="2:17">
       <c r="B38" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1639,11 +1691,11 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
+      <c r="Q38" s="28"/>
     </row>
     <row r="39" spans="2:17">
       <c r="B39" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1653,7 +1705,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -1661,13 +1713,15 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q39" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="Q39" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="2:17" ht="15.75" customHeight="1">
       <c r="B40" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1677,7 +1731,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -1685,13 +1739,15 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q40" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="Q40" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="2:17" ht="15.75" customHeight="1">
       <c r="B41" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1701,23 +1757,25 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q41" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="Q41" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="2:17" ht="15.75" customHeight="1">
       <c r="B42" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1728,20 +1786,20 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q42" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="Q42" s="28"/>
     </row>
     <row r="43" spans="2:17" ht="15.75" customHeight="1">
       <c r="B43" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1752,20 +1810,20 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q43" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="Q43" s="28"/>
     </row>
     <row r="44" spans="2:17" ht="15.75" customHeight="1">
       <c r="B44" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1781,11 +1839,11 @@
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="6"/>
-      <c r="Q44" s="4"/>
+      <c r="Q44" s="28"/>
     </row>
     <row r="45" spans="2:17" ht="15.75" customHeight="1">
       <c r="B45" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1801,11 +1859,11 @@
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="6"/>
-      <c r="Q45" s="4"/>
+      <c r="Q45" s="28"/>
     </row>
     <row r="46" spans="2:17" ht="15.75" customHeight="1">
       <c r="B46" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1817,19 +1875,19 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q46" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="Q46" s="28"/>
     </row>
     <row r="47" spans="2:17" ht="15.75" customHeight="1">
       <c r="B47" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1841,19 +1899,19 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q47" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="Q47" s="28"/>
     </row>
     <row r="48" spans="2:17" ht="15.75" customHeight="1">
       <c r="B48" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1865,19 +1923,19 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q48" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="Q48" s="28"/>
     </row>
     <row r="49" spans="2:17" ht="15.75" customHeight="1">
       <c r="B49" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -1890,18 +1948,18 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q49" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="Q49" s="28"/>
     </row>
     <row r="50" spans="2:17" ht="15.75" customHeight="1">
       <c r="B50" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1914,18 +1972,18 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q50" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="Q50" s="28"/>
     </row>
     <row r="51" spans="2:17" ht="15.75" customHeight="1">
       <c r="B51" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1941,11 +1999,11 @@
       <c r="N51" s="6"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
+      <c r="Q51" s="28"/>
     </row>
     <row r="52" spans="2:17" ht="15.75" customHeight="1">
       <c r="B52" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -1959,17 +2017,17 @@
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O52" s="4"/>
       <c r="P52" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q52" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="Q52" s="28"/>
     </row>
     <row r="53" spans="2:17" ht="15.75" customHeight="1">
       <c r="B53" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1985,11 +2043,11 @@
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
       <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
+      <c r="Q53" s="28"/>
     </row>
     <row r="54" spans="2:17" ht="15.75" customHeight="1">
       <c r="B54" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -2004,16 +2062,16 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q54" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="Q54" s="28"/>
     </row>
     <row r="55" spans="2:17" ht="15.75" customHeight="1">
       <c r="B55" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -2028,12 +2086,12 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q55" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="Q55" s="28"/>
     </row>
     <row r="56" spans="2:17" ht="15.75" customHeight="1"/>
     <row r="57" spans="2:17" ht="15.75" customHeight="1"/>

--- a/Desarrollo/SOE/Gestion/SOE - CP.xlsx
+++ b/Desarrollo/SOE/Gestion/SOE - CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\Amezaga-Code\Desarrollo\SOE\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD06BE99-30BE-4C82-A349-DB7621025C60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98698564-739D-4D29-BDF5-E17AF0CD82A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Elaborar las vistas de la creacion del registro de usuario</t>
   </si>
   <si>
-    <t>Elaborar las vistas de la creacion del tarea</t>
-  </si>
-  <si>
     <t>Elaborar la creacion de pomodoro</t>
   </si>
   <si>
@@ -295,6 +292,9 @@
   </si>
   <si>
     <t>Avance</t>
+  </si>
+  <si>
+    <t>Elaborar las vistas de la pantalla principal</t>
   </si>
 </sst>
 </file>
@@ -305,7 +305,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,7 +370,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -451,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -476,7 +491,19 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -495,19 +522,10 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q64" sqref="Q64"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -737,117 +755,117 @@
     <col min="4" max="11" width="2.625" customWidth="1"/>
     <col min="12" max="15" width="3.5" customWidth="1"/>
     <col min="16" max="16" width="20.5" customWidth="1"/>
-    <col min="17" max="17" width="9.375" style="29" customWidth="1"/>
+    <col min="17" max="17" width="9.375" style="20" customWidth="1"/>
     <col min="18" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="18.75">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
     </row>
     <row r="2" spans="2:17">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="29">
         <v>44132</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
     </row>
     <row r="5" spans="2:17">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="30">
         <v>44232</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="2:17" ht="14.25">
       <c r="B6" s="2" t="s">
@@ -896,7 +914,7 @@
         <v>21</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:17">
@@ -917,7 +935,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="28"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="2:17">
       <c r="B8" s="5" t="s">
@@ -941,7 +959,7 @@
       <c r="P8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="21">
         <v>0</v>
       </c>
     </row>
@@ -969,7 +987,7 @@
       <c r="P9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="Q9" s="21">
         <v>1</v>
       </c>
     </row>
@@ -995,7 +1013,7 @@
       <c r="P10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="22">
         <v>0.72719999999999996</v>
       </c>
     </row>
@@ -1023,29 +1041,29 @@
       <c r="P11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="Q11" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="14.25">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="21"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" s="8" t="s">
@@ -1065,7 +1083,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="28"/>
+      <c r="Q13" s="19"/>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="9" t="s">
@@ -1085,7 +1103,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="28"/>
+      <c r="Q14" s="19"/>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" s="10" t="s">
@@ -1111,7 +1129,7 @@
       <c r="P15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="Q15" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1139,7 +1157,7 @@
       <c r="P16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="Q16" s="21">
         <v>0.1</v>
       </c>
     </row>
@@ -1167,7 +1185,7 @@
       <c r="P17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q17" s="30">
+      <c r="Q17" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1195,8 +1213,8 @@
       <c r="P18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="30">
-        <v>0.1</v>
+      <c r="Q18" s="21">
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="2:17">
@@ -1221,13 +1239,13 @@
       <c r="P19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q19" s="30">
+      <c r="Q19" s="21">
         <v>0.9</v>
       </c>
     </row>
     <row r="20" spans="2:17">
       <c r="B20" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1247,8 +1265,8 @@
       <c r="P20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q20" s="30">
-        <v>0</v>
+      <c r="Q20" s="21">
+        <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="2:17">
@@ -1273,7 +1291,7 @@
       <c r="P21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q21" s="30">
+      <c r="Q21" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1299,7 +1317,7 @@
       <c r="P22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q22" s="30">
+      <c r="Q22" s="21">
         <v>0.9</v>
       </c>
     </row>
@@ -1325,7 +1343,7 @@
       <c r="P23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q23" s="30">
+      <c r="Q23" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1351,7 +1369,7 @@
       <c r="P24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q24" s="30">
+      <c r="Q24" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1377,7 +1395,7 @@
       <c r="P25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q25" s="30">
+      <c r="Q25" s="21">
         <v>0.1</v>
       </c>
     </row>
@@ -1399,10 +1417,10 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="6"/>
-      <c r="Q26" s="28"/>
+      <c r="Q26" s="19"/>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="4"/>
@@ -1423,7 +1441,7 @@
       <c r="P27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Q27" s="30">
+      <c r="Q27" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1449,7 +1467,7 @@
       <c r="P28" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Q28" s="31">
+      <c r="Q28" s="22">
         <v>0.5454</v>
       </c>
     </row>
@@ -1475,7 +1493,7 @@
       <c r="P29" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="Q29" s="31">
+      <c r="Q29" s="22">
         <v>0.72719999999999996</v>
       </c>
     </row>
@@ -1499,7 +1517,7 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="28"/>
+      <c r="Q30" s="19"/>
     </row>
     <row r="31" spans="2:17">
       <c r="B31" s="11" t="s">
@@ -1523,7 +1541,7 @@
       <c r="P31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Q31" s="30">
+      <c r="Q31" s="21">
         <v>0.5</v>
       </c>
     </row>
@@ -1549,7 +1567,7 @@
       <c r="P32" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Q32" s="30">
+      <c r="Q32" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1573,7 +1591,7 @@
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="6"/>
-      <c r="Q33" s="28"/>
+      <c r="Q33" s="19"/>
     </row>
     <row r="34" spans="2:17">
       <c r="B34" s="15" t="s">
@@ -1593,7 +1611,7 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="28"/>
+      <c r="Q34" s="19"/>
     </row>
     <row r="35" spans="2:17">
       <c r="B35" s="11" t="s">
@@ -1617,7 +1635,7 @@
       <c r="P35" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Q35" s="30">
+      <c r="Q35" s="21">
         <v>0.25</v>
       </c>
     </row>
@@ -1643,7 +1661,7 @@
       <c r="P36" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Q36" s="30">
+      <c r="Q36" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1669,7 +1687,7 @@
       <c r="P37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Q37" s="30">
+      <c r="Q37" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1691,7 +1709,7 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="28"/>
+      <c r="Q38" s="19"/>
     </row>
     <row r="39" spans="2:17">
       <c r="B39" s="16" t="s">
@@ -1715,7 +1733,7 @@
       <c r="P39" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Q39" s="30">
+      <c r="Q39" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1741,7 +1759,7 @@
       <c r="P40" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Q40" s="30">
+      <c r="Q40" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1769,7 +1787,7 @@
       <c r="P41" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Q41" s="30">
+      <c r="Q41" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1795,11 +1813,11 @@
       <c r="P42" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Q42" s="28"/>
+      <c r="Q42" s="19"/>
     </row>
     <row r="43" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B43" s="17" t="s">
-        <v>70</v>
+      <c r="B43" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1819,11 +1837,11 @@
       <c r="P43" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Q43" s="28"/>
+      <c r="Q43" s="19"/>
     </row>
     <row r="44" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B44" s="18" t="s">
-        <v>71</v>
+      <c r="B44" s="31" t="s">
+        <v>70</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1834,16 +1852,20 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="4"/>
+      <c r="L44" s="34" t="s">
+        <v>24</v>
+      </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="28"/>
+      <c r="P44" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q44" s="19"/>
     </row>
     <row r="45" spans="2:17" ht="15.75" customHeight="1">
       <c r="B45" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1859,11 +1881,11 @@
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="6"/>
-      <c r="Q45" s="28"/>
+      <c r="Q45" s="19"/>
     </row>
     <row r="46" spans="2:17" ht="15.75" customHeight="1">
       <c r="B46" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1881,13 +1903,13 @@
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q46" s="28"/>
+        <v>73</v>
+      </c>
+      <c r="Q46" s="19"/>
     </row>
     <row r="47" spans="2:17" ht="15.75" customHeight="1">
       <c r="B47" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1905,13 +1927,13 @@
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q47" s="28"/>
+        <v>75</v>
+      </c>
+      <c r="Q47" s="19"/>
     </row>
     <row r="48" spans="2:17" ht="15.75" customHeight="1">
       <c r="B48" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1929,13 +1951,13 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q48" s="28"/>
+        <v>77</v>
+      </c>
+      <c r="Q48" s="19"/>
     </row>
     <row r="49" spans="2:17" ht="15.75" customHeight="1">
       <c r="B49" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -1953,13 +1975,13 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q49" s="28"/>
+        <v>79</v>
+      </c>
+      <c r="Q49" s="19"/>
     </row>
     <row r="50" spans="2:17" ht="15.75" customHeight="1">
       <c r="B50" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1977,13 +1999,13 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q50" s="28"/>
+        <v>81</v>
+      </c>
+      <c r="Q50" s="19"/>
     </row>
     <row r="51" spans="2:17" ht="15.75" customHeight="1">
       <c r="B51" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1999,11 +2021,11 @@
       <c r="N51" s="6"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="28"/>
+      <c r="Q51" s="19"/>
     </row>
     <row r="52" spans="2:17" ht="15.75" customHeight="1">
       <c r="B52" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -2023,11 +2045,11 @@
       <c r="P52" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Q52" s="28"/>
+      <c r="Q52" s="19"/>
     </row>
     <row r="53" spans="2:17" ht="15.75" customHeight="1">
       <c r="B53" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -2043,11 +2065,11 @@
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
       <c r="P53" s="4"/>
-      <c r="Q53" s="28"/>
+      <c r="Q53" s="19"/>
     </row>
     <row r="54" spans="2:17" ht="15.75" customHeight="1">
       <c r="B54" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -2067,11 +2089,11 @@
       <c r="P54" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Q54" s="28"/>
+      <c r="Q54" s="19"/>
     </row>
     <row r="55" spans="2:17" ht="15.75" customHeight="1">
       <c r="B55" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -2091,7 +2113,7 @@
       <c r="P55" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Q55" s="28"/>
+      <c r="Q55" s="19"/>
     </row>
     <row r="56" spans="2:17" ht="15.75" customHeight="1"/>
     <row r="57" spans="2:17" ht="15.75" customHeight="1"/>
@@ -3066,6 +3088,6 @@
     <mergeCell ref="C5:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Desarrollo/SOE/Gestion/SOE - CP.xlsx
+++ b/Desarrollo/SOE/Gestion/SOE - CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\Amezaga-Code\Desarrollo\SOE\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98698564-739D-4D29-BDF5-E17AF0CD82A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192F32AD-41D1-4B3D-9BFE-B89C1D0CD0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="90">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -305,7 +305,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +504,10 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -522,10 +526,6 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,11 +743,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.875" customWidth="1"/>
     <col min="2" max="2" width="64" customWidth="1"/>
@@ -759,115 +759,115 @@
     <col min="18" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="18.75">
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-    </row>
-    <row r="2" spans="2:17">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-    </row>
-    <row r="3" spans="2:17">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-    </row>
-    <row r="4" spans="2:17">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="33">
         <v>44132</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-    </row>
-    <row r="5" spans="2:17">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="34">
         <v>44232</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-    </row>
-    <row r="6" spans="2:17" ht="14.25">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+    </row>
+    <row r="6" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -917,7 +917,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="19"/>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>0.72719999999999996</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -1045,27 +1045,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="14.25">
-      <c r="B12" s="23" t="s">
+    <row r="12" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-    </row>
-    <row r="13" spans="2:17">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="29"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>32</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="19"/>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>33</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="19"/>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>34</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>36</v>
       </c>
@@ -1158,10 +1158,10 @@
         <v>37</v>
       </c>
       <c r="Q16" s="21">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>38</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:17">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>39</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="2:17">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>41</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="2:17">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>42</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>43</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>44</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>45</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>46</v>
       </c>
@@ -1396,10 +1396,10 @@
         <v>37</v>
       </c>
       <c r="Q25" s="21">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>47</v>
       </c>
@@ -1419,7 +1419,7 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="19"/>
     </row>
-    <row r="27" spans="2:17">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>48</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:17">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>50</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>0.5454</v>
       </c>
     </row>
-    <row r="29" spans="2:17">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>51</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>0.72719999999999996</v>
       </c>
     </row>
-    <row r="30" spans="2:17">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="s">
         <v>53</v>
       </c>
@@ -1506,9 +1506,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="H30" s="6"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1519,7 +1517,7 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="19"/>
     </row>
-    <row r="31" spans="2:17">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>54</v>
       </c>
@@ -1545,7 +1543,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="2:17">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>56</v>
       </c>
@@ -1571,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:17">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>57</v>
       </c>
@@ -1593,7 +1591,7 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="19"/>
     </row>
-    <row r="34" spans="2:17">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
         <v>58</v>
       </c>
@@ -1613,7 +1611,7 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="19"/>
     </row>
-    <row r="35" spans="2:17">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>59</v>
       </c>
@@ -1639,7 +1637,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="2:17">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
         <v>60</v>
       </c>
@@ -1665,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:17">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
         <v>61</v>
       </c>
@@ -1691,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:17">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
         <v>62</v>
       </c>
@@ -1711,7 +1709,7 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="19"/>
     </row>
-    <row r="39" spans="2:17">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>63</v>
       </c>
@@ -1737,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:17" ht="15.75" customHeight="1">
+    <row r="40" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>65</v>
       </c>
@@ -1763,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:17" ht="15.75" customHeight="1">
+    <row r="41" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>67</v>
       </c>
@@ -1791,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:17" ht="15.75" customHeight="1">
+    <row r="42" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
         <v>69</v>
       </c>
@@ -1815,8 +1813,8 @@
       </c>
       <c r="Q42" s="19"/>
     </row>
-    <row r="43" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B43" s="32" t="s">
+    <row r="43" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="24" t="s">
         <v>89</v>
       </c>
       <c r="C43" s="4"/>
@@ -1839,8 +1837,8 @@
       </c>
       <c r="Q43" s="19"/>
     </row>
-    <row r="44" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B44" s="31" t="s">
+    <row r="44" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="23" t="s">
         <v>70</v>
       </c>
       <c r="C44" s="4"/>
@@ -1852,18 +1850,18 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="34" t="s">
+      <c r="L44" s="26" t="s">
         <v>24</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
-      <c r="P44" s="33" t="s">
+      <c r="P44" s="25" t="s">
         <v>66</v>
       </c>
       <c r="Q44" s="19"/>
     </row>
-    <row r="45" spans="2:17" ht="15.75" customHeight="1">
+    <row r="45" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
         <v>71</v>
       </c>
@@ -1883,7 +1881,7 @@
       <c r="P45" s="6"/>
       <c r="Q45" s="19"/>
     </row>
-    <row r="46" spans="2:17" ht="15.75" customHeight="1">
+    <row r="46" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>72</v>
       </c>
@@ -1907,7 +1905,7 @@
       </c>
       <c r="Q46" s="19"/>
     </row>
-    <row r="47" spans="2:17" ht="15.75" customHeight="1">
+    <row r="47" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>74</v>
       </c>
@@ -1931,7 +1929,7 @@
       </c>
       <c r="Q47" s="19"/>
     </row>
-    <row r="48" spans="2:17" ht="15.75" customHeight="1">
+    <row r="48" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>76</v>
       </c>
@@ -1955,7 +1953,7 @@
       </c>
       <c r="Q48" s="19"/>
     </row>
-    <row r="49" spans="2:17" ht="15.75" customHeight="1">
+    <row r="49" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
         <v>78</v>
       </c>
@@ -1979,7 +1977,7 @@
       </c>
       <c r="Q49" s="19"/>
     </row>
-    <row r="50" spans="2:17" ht="15.75" customHeight="1">
+    <row r="50" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="16" t="s">
         <v>80</v>
       </c>
@@ -2003,7 +2001,7 @@
       </c>
       <c r="Q50" s="19"/>
     </row>
-    <row r="51" spans="2:17" ht="15.75" customHeight="1">
+    <row r="51" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
         <v>82</v>
       </c>
@@ -2023,7 +2021,7 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="19"/>
     </row>
-    <row r="52" spans="2:17" ht="15.75" customHeight="1">
+    <row r="52" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
         <v>83</v>
       </c>
@@ -2047,7 +2045,7 @@
       </c>
       <c r="Q52" s="19"/>
     </row>
-    <row r="53" spans="2:17" ht="15.75" customHeight="1">
+    <row r="53" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
         <v>84</v>
       </c>
@@ -2067,7 +2065,7 @@
       <c r="P53" s="4"/>
       <c r="Q53" s="19"/>
     </row>
-    <row r="54" spans="2:17" ht="15.75" customHeight="1">
+    <row r="54" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>85</v>
       </c>
@@ -2091,7 +2089,7 @@
       </c>
       <c r="Q54" s="19"/>
     </row>
-    <row r="55" spans="2:17" ht="15.75" customHeight="1">
+    <row r="55" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>86</v>
       </c>
@@ -2115,969 +2113,969 @@
       </c>
       <c r="Q55" s="19"/>
     </row>
-    <row r="56" spans="2:17" ht="15.75" customHeight="1"/>
-    <row r="57" spans="2:17" ht="15.75" customHeight="1"/>
-    <row r="58" spans="2:17" ht="15.75" customHeight="1"/>
-    <row r="59" spans="2:17" ht="15.75" customHeight="1"/>
-    <row r="60" spans="2:17" ht="15.75" customHeight="1"/>
-    <row r="61" spans="2:17" ht="15.75" customHeight="1"/>
-    <row r="62" spans="2:17" ht="15.75" customHeight="1"/>
-    <row r="63" spans="2:17" ht="15.75" customHeight="1"/>
-    <row r="64" spans="2:17" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
-    <row r="1008" ht="15.75" customHeight="1"/>
-    <row r="1009" ht="15.75" customHeight="1"/>
-    <row r="1010" ht="15.75" customHeight="1"/>
-    <row r="1011" ht="15.75" customHeight="1"/>
-    <row r="1012" ht="15.75" customHeight="1"/>
-    <row r="1013" ht="15.75" customHeight="1"/>
-    <row r="1014" ht="15.75" customHeight="1"/>
-    <row r="1015" ht="15.75" customHeight="1"/>
-    <row r="1016" ht="15.75" customHeight="1"/>
-    <row r="1017" ht="15.75" customHeight="1"/>
-    <row r="1018" ht="15.75" customHeight="1"/>
+    <row r="56" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B12:Q12"/>

--- a/Desarrollo/SOE/Gestion/SOE - CP.xlsx
+++ b/Desarrollo/SOE/Gestion/SOE - CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\Amezaga-Code\Desarrollo\SOE\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192F32AD-41D1-4B3D-9BFE-B89C1D0CD0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F960AD3E-BCDC-43BE-8966-0F6C96A4F06C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1214,7 +1214,7 @@
         <v>40</v>
       </c>
       <c r="Q18" s="21">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
         <v>40</v>
       </c>
       <c r="Q20" s="21">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">

--- a/Desarrollo/SOE/Gestion/SOE - CP.xlsx
+++ b/Desarrollo/SOE/Gestion/SOE - CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\Amezaga-Code\Desarrollo\SOE\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F960AD3E-BCDC-43BE-8966-0F6C96A4F06C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA6E66D-16FD-4C97-B723-DD7F205CA3B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1014,7 +1014,7 @@
         <v>28</v>
       </c>
       <c r="Q10" s="22">
-        <v>0.72719999999999996</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
@@ -1240,7 +1240,7 @@
         <v>30</v>
       </c>
       <c r="Q19" s="21">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
         <v>40</v>
       </c>
       <c r="Q20" s="21">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
@@ -1494,7 +1494,7 @@
         <v>52</v>
       </c>
       <c r="Q29" s="22">
-        <v>0.72719999999999996</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">

--- a/Desarrollo/SOE/Gestion/SOE - CP.xlsx
+++ b/Desarrollo/SOE/Gestion/SOE - CP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\Amezaga-Code\Desarrollo\SOE\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Documents\GitHub\Amezaga-Code\Desarrollo\SOE\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192F32AD-41D1-4B3D-9BFE-B89C1D0CD0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -300,7 +299,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
@@ -740,11 +739,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q1018"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:B37"/>
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1786,7 +1785,7 @@
         <v>68</v>
       </c>
       <c r="Q41" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1811,7 +1810,9 @@
       <c r="P42" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Q42" s="19"/>
+      <c r="Q42" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="24" t="s">

--- a/Desarrollo/SOE/Gestion/SOE - CP.xlsx
+++ b/Desarrollo/SOE/Gestion/SOE - CP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Documents\GitHub\Amezaga-Code\Desarrollo\SOE\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Desktop\trash\Nueva carpeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mioWTF5QCRiHh+tnhArHwakkc1SCA=="/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="98">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Elaboracion del Cronograma del Proyecto</t>
   </si>
   <si>
-    <t>Elaboración de Prototipos</t>
-  </si>
-  <si>
     <t>Eddy Ortega</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>Hito #1:11/11/2020</t>
   </si>
   <si>
-    <t>Analisis y Diseño:</t>
-  </si>
-  <si>
     <t>Elaborar Documento de Especificaion de Requisitos</t>
   </si>
   <si>
@@ -197,9 +191,6 @@
     <t>Elaboracion del diagrama de clases</t>
   </si>
   <si>
-    <t>Hito #2</t>
-  </si>
-  <si>
     <t>Desarrollo de la Base de Datos</t>
   </si>
   <si>
@@ -266,27 +257,12 @@
     <t>José</t>
   </si>
   <si>
-    <t>Elaborar la creacion de crear grupo</t>
-  </si>
-  <si>
     <t>Alexander</t>
   </si>
   <si>
-    <t>Hito #3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Realizar pruebas unitarias </t>
   </si>
   <si>
-    <t>Hito #4:</t>
-  </si>
-  <si>
-    <t>Despliegue de la aplicacion</t>
-  </si>
-  <si>
-    <t>Monitoreo de los clientes</t>
-  </si>
-  <si>
     <t>Elaboracion de la especificacion de requisito 06: Modificar tarea</t>
   </si>
   <si>
@@ -294,6 +270,54 @@
   </si>
   <si>
     <t>Elaborar las vistas de la pantalla principal</t>
+  </si>
+  <si>
+    <t>Hito #3 23/12/2020</t>
+  </si>
+  <si>
+    <t>Realizar pruebas de integracion</t>
+  </si>
+  <si>
+    <t>Resolver errores</t>
+  </si>
+  <si>
+    <t>Despliegue de la aplicación en Heroku</t>
+  </si>
+  <si>
+    <t>Elaboracion del manual técnico</t>
+  </si>
+  <si>
+    <t>Elaboración del manual de usuario</t>
+  </si>
+  <si>
+    <t>Hito #2 09/12/2020</t>
+  </si>
+  <si>
+    <t>Hito #4: 13/01/2021</t>
+  </si>
+  <si>
+    <t>Codigo:</t>
+  </si>
+  <si>
+    <t>Pruebas:</t>
+  </si>
+  <si>
+    <t>Pase a produccion:</t>
+  </si>
+  <si>
+    <t>Documentacion:</t>
+  </si>
+  <si>
+    <t>Especificacion y Análisis:</t>
+  </si>
+  <si>
+    <t>Diseño:</t>
+  </si>
+  <si>
+    <t>Elaborar la creacion de  grupo</t>
+  </si>
+  <si>
+    <t>Alexander,Bradom</t>
   </si>
 </sst>
 </file>
@@ -304,11 +328,18 @@
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -386,8 +417,36 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,12 +455,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF1C232"/>
+        <fgColor theme="7"/>
         <bgColor rgb="FFF1C232"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -425,30 +490,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -461,68 +502,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q1018"/>
+  <dimension ref="B1:Q1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -754,117 +898,117 @@
     <col min="4" max="11" width="2.625" customWidth="1"/>
     <col min="12" max="15" width="3.5" customWidth="1"/>
     <col min="16" max="16" width="20.5" customWidth="1"/>
-    <col min="17" max="17" width="9.375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="9.375" style="14" customWidth="1"/>
     <col min="18" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="66">
         <v>44132</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="67">
         <v>44232</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
     </row>
     <row r="6" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -913,1215 +1057,1399 @@
         <v>21</v>
       </c>
       <c r="Q6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="13"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="32"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>0.5454</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>0.72719999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="41" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="19"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="21">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q37" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="21">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q38" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q40" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" s="22">
-        <v>0.72719999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="21">
+    <row r="41" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q41" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="29"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="19"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="19"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q15" s="21">
+    <row r="42" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q42" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q16" s="21">
+    <row r="43" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q43" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q18" s="21">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="21">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+    <row r="44" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q44" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q48" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q50" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O51" s="3"/>
+      <c r="P51" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="O54" s="34"/>
+      <c r="P54" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q54" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="O55" s="36"/>
+      <c r="P55" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="O56" s="27"/>
+      <c r="P56" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q56" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="56"/>
+      <c r="Q57" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="O58" s="36"/>
+      <c r="P58" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q58" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="56"/>
+      <c r="Q59" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="P60" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q60" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q20" s="21">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q22" s="21">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q23" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q25" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="19"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q27" s="21">
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="P61" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q61" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q28" s="22">
-        <v>0.5454</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q29" s="22">
-        <v>0.72719999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="19"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q31" s="21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q32" s="21">
+    <row r="62" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="56"/>
+      <c r="Q62" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="19"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="19"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q35" s="21">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q36" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q37" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="19"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B39" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q39" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q40" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q41" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q42" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q43" s="19"/>
-    </row>
-    <row r="44" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q44" s="19"/>
-    </row>
-    <row r="45" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="19"/>
-    </row>
-    <row r="46" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q46" s="19"/>
-    </row>
-    <row r="47" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q47" s="19"/>
-    </row>
-    <row r="48" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q48" s="19"/>
-    </row>
-    <row r="49" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q49" s="19"/>
-    </row>
-    <row r="50" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q50" s="19"/>
-    </row>
-    <row r="51" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="19"/>
-    </row>
-    <row r="52" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O52" s="4"/>
-      <c r="P52" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q52" s="19"/>
-    </row>
-    <row r="53" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="19"/>
-    </row>
-    <row r="54" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P54" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q54" s="19"/>
-    </row>
-    <row r="55" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P55" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q55" s="19"/>
-    </row>
-    <row r="56" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q63" s="62">
+        <f>AVERAGE(Q8:Q62)</f>
+        <v>0.41161333333333344</v>
+      </c>
+    </row>
     <row r="64" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3076,10 +3404,8 @@
     <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B12:Q12"/>
+  <mergeCells count="5">
     <mergeCell ref="B1:Q1"/>
     <mergeCell ref="C2:Q2"/>
     <mergeCell ref="C3:Q3"/>

--- a/Desarrollo/SOE/Gestion/SOE - CP.xlsx
+++ b/Desarrollo/SOE/Gestion/SOE - CP.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\Amezaga-Code\Desarrollo\SOE\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Desktop\trash\Nueva carpeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA6E66D-16FD-4C97-B723-DD7F205CA3B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mioWTF5QCRiHh+tnhArHwakkc1SCA=="/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="98">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -108,9 +107,6 @@
     <t>Elaboracion del Cronograma del Proyecto</t>
   </si>
   <si>
-    <t>Elaboración de Prototipos</t>
-  </si>
-  <si>
     <t>Eddy Ortega</t>
   </si>
   <si>
@@ -123,9 +119,6 @@
     <t>Hito #1:11/11/2020</t>
   </si>
   <si>
-    <t>Analisis y Diseño:</t>
-  </si>
-  <si>
     <t>Elaborar Documento de Especificaion de Requisitos</t>
   </si>
   <si>
@@ -198,9 +191,6 @@
     <t>Elaboracion del diagrama de clases</t>
   </si>
   <si>
-    <t>Hito #2</t>
-  </si>
-  <si>
     <t>Desarrollo de la Base de Datos</t>
   </si>
   <si>
@@ -267,27 +257,12 @@
     <t>José</t>
   </si>
   <si>
-    <t>Elaborar la creacion de crear grupo</t>
-  </si>
-  <si>
     <t>Alexander</t>
   </si>
   <si>
-    <t>Hito #3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Realizar pruebas unitarias </t>
   </si>
   <si>
-    <t>Hito #4:</t>
-  </si>
-  <si>
-    <t>Despliegue de la aplicacion</t>
-  </si>
-  <si>
-    <t>Monitoreo de los clientes</t>
-  </si>
-  <si>
     <t>Elaboracion de la especificacion de requisito 06: Modificar tarea</t>
   </si>
   <si>
@@ -295,21 +270,76 @@
   </si>
   <si>
     <t>Elaborar las vistas de la pantalla principal</t>
+  </si>
+  <si>
+    <t>Hito #3 23/12/2020</t>
+  </si>
+  <si>
+    <t>Realizar pruebas de integracion</t>
+  </si>
+  <si>
+    <t>Resolver errores</t>
+  </si>
+  <si>
+    <t>Despliegue de la aplicación en Heroku</t>
+  </si>
+  <si>
+    <t>Elaboracion del manual técnico</t>
+  </si>
+  <si>
+    <t>Elaboración del manual de usuario</t>
+  </si>
+  <si>
+    <t>Hito #2 09/12/2020</t>
+  </si>
+  <si>
+    <t>Hito #4: 13/01/2021</t>
+  </si>
+  <si>
+    <t>Codigo:</t>
+  </si>
+  <si>
+    <t>Pruebas:</t>
+  </si>
+  <si>
+    <t>Pase a produccion:</t>
+  </si>
+  <si>
+    <t>Documentacion:</t>
+  </si>
+  <si>
+    <t>Especificacion y Análisis:</t>
+  </si>
+  <si>
+    <t>Diseño:</t>
+  </si>
+  <si>
+    <t>Elaborar la creacion de  grupo</t>
+  </si>
+  <si>
+    <t>Alexander,Bradom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -387,8 +417,36 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,12 +455,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF1C232"/>
+        <fgColor theme="7"/>
         <bgColor rgb="FFF1C232"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -426,30 +490,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -462,68 +502,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,11 +883,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Q1018"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -755,117 +898,117 @@
     <col min="4" max="11" width="2.625" customWidth="1"/>
     <col min="12" max="15" width="3.5" customWidth="1"/>
     <col min="16" max="16" width="20.5" customWidth="1"/>
-    <col min="17" max="17" width="9.375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="9.375" style="14" customWidth="1"/>
     <col min="18" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="66">
         <v>44132</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="67">
         <v>44232</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
     </row>
     <row r="6" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -914,1213 +1057,1399 @@
         <v>21</v>
       </c>
       <c r="Q6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="13"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="32"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>0.5454</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>0.72719999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="41" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="19"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="21">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q37" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="21">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q38" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q40" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" s="22">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="21">
+    <row r="41" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q41" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="29"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="19"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="19"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q15" s="21">
+    <row r="42" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q42" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q16" s="21">
+    <row r="43" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q43" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q18" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+    <row r="44" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q44" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q48" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q50" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O51" s="3"/>
+      <c r="P51" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="O54" s="34"/>
+      <c r="P54" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q54" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="O55" s="36"/>
+      <c r="P55" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="O56" s="27"/>
+      <c r="P56" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q56" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="56"/>
+      <c r="Q57" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="O58" s="36"/>
+      <c r="P58" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q58" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="56"/>
+      <c r="Q59" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="P60" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q60" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q20" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q22" s="21">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q23" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q25" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="19"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q27" s="21">
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="P61" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q61" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q28" s="22">
-        <v>0.5454</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q29" s="22">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="19"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q31" s="21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q32" s="21">
+    <row r="62" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="56"/>
+      <c r="Q62" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="19"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="19"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q35" s="21">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q36" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q37" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="19"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B39" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q39" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q40" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q41" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q42" s="19"/>
-    </row>
-    <row r="43" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q43" s="19"/>
-    </row>
-    <row r="44" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q44" s="19"/>
-    </row>
-    <row r="45" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="19"/>
-    </row>
-    <row r="46" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q46" s="19"/>
-    </row>
-    <row r="47" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q47" s="19"/>
-    </row>
-    <row r="48" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q48" s="19"/>
-    </row>
-    <row r="49" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q49" s="19"/>
-    </row>
-    <row r="50" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q50" s="19"/>
-    </row>
-    <row r="51" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="19"/>
-    </row>
-    <row r="52" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O52" s="4"/>
-      <c r="P52" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q52" s="19"/>
-    </row>
-    <row r="53" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="19"/>
-    </row>
-    <row r="54" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P54" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q54" s="19"/>
-    </row>
-    <row r="55" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P55" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q55" s="19"/>
-    </row>
-    <row r="56" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q63" s="62">
+        <f>AVERAGE(Q8:Q62)</f>
+        <v>0.41161333333333344</v>
+      </c>
+    </row>
     <row r="64" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3075,10 +3404,8 @@
     <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B12:Q12"/>
+  <mergeCells count="5">
     <mergeCell ref="B1:Q1"/>
     <mergeCell ref="C2:Q2"/>
     <mergeCell ref="C3:Q3"/>

--- a/Desarrollo/SOE/Gestion/SOE - CP.xlsx
+++ b/Desarrollo/SOE/Gestion/SOE - CP.xlsx
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1331,7 +1331,7 @@
         <v>38</v>
       </c>
       <c r="Q17" s="15">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
         <v>29</v>
       </c>
       <c r="Q18" s="15">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
@@ -1383,7 +1383,7 @@
         <v>38</v>
       </c>
       <c r="Q19" s="15">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
         <v>97</v>
       </c>
       <c r="Q26" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -1611,7 +1611,7 @@
         <v>50</v>
       </c>
       <c r="Q28" s="16">
-        <v>0.72719999999999996</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="29" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -2042,9 +2042,7 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="15">
-        <v>0</v>
-      </c>
+      <c r="Q46" s="15"/>
     </row>
     <row r="47" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
@@ -2196,9 +2194,7 @@
       <c r="N52" s="29"/>
       <c r="O52" s="28"/>
       <c r="P52" s="28"/>
-      <c r="Q52" s="15">
-        <v>0</v>
-      </c>
+      <c r="Q52" s="15"/>
     </row>
     <row r="53" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="47" t="s">
@@ -2218,9 +2214,7 @@
       <c r="N53" s="27"/>
       <c r="O53" s="27"/>
       <c r="P53" s="27"/>
-      <c r="Q53" s="15">
-        <v>0</v>
-      </c>
+      <c r="Q53" s="15"/>
     </row>
     <row r="54" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="33" t="s">
@@ -2318,9 +2312,7 @@
       <c r="N57" s="27"/>
       <c r="O57" s="27"/>
       <c r="P57" s="56"/>
-      <c r="Q57" s="15">
-        <v>0</v>
-      </c>
+      <c r="Q57" s="15"/>
     </row>
     <row r="58" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="37" t="s">
@@ -2366,9 +2358,7 @@
       <c r="N59" s="27"/>
       <c r="O59" s="27"/>
       <c r="P59" s="56"/>
-      <c r="Q59" s="15">
-        <v>0</v>
-      </c>
+      <c r="Q59" s="15"/>
     </row>
     <row r="60" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="39" t="s">
@@ -2440,14 +2430,12 @@
       <c r="N62" s="27"/>
       <c r="O62" s="27"/>
       <c r="P62" s="56"/>
-      <c r="Q62" s="15">
-        <v>0</v>
-      </c>
+      <c r="Q62" s="15"/>
     </row>
     <row r="63" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q63" s="62">
         <f>AVERAGE(Q8:Q62)</f>
-        <v>0.41161333333333344</v>
+        <v>0.54116410256410252</v>
       </c>
     </row>
     <row r="64" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Desarrollo/SOE/Gestion/SOE - CP.xlsx
+++ b/Desarrollo/SOE/Gestion/SOE - CP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Desktop\trash\Nueva carpeta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Documents\GitHub\Amezaga-Code\Desarrollo\SOE\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="100">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -197,12 +197,6 @@
     <t xml:space="preserve">Elaboración de modelos </t>
   </si>
   <si>
-    <t>Crear colección profesores</t>
-  </si>
-  <si>
-    <t>Crear colección tarea</t>
-  </si>
-  <si>
     <t>FrontEnd</t>
   </si>
   <si>
@@ -318,6 +312,18 @@
   </si>
   <si>
     <t>Alexander,Bradom</t>
+  </si>
+  <si>
+    <t>Crear tabla tarea</t>
+  </si>
+  <si>
+    <t>Crear tabla usuario</t>
+  </si>
+  <si>
+    <t>Crear tabla horario</t>
+  </si>
+  <si>
+    <t>Crear tabla grupo</t>
   </si>
 </sst>
 </file>
@@ -328,7 +334,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +451,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -555,10 +566,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -656,6 +668,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -669,9 +682,13 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -884,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q1017"/>
+  <dimension ref="B1:Q1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="L6" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -903,112 +920,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="67">
         <v>44132</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="68">
         <v>44232</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
     </row>
     <row r="6" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -1057,7 +1074,7 @@
         <v>21</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
@@ -1184,7 +1201,7 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -1362,7 +1379,7 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1435,7 +1452,7 @@
         <v>25</v>
       </c>
       <c r="Q21" s="15">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
@@ -1556,7 +1573,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q26" s="15">
         <v>1</v>
@@ -1584,8 +1601,8 @@
       <c r="P27" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Q27" s="16">
-        <v>0.5454</v>
+      <c r="Q27" s="69">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
@@ -1610,13 +1627,13 @@
       <c r="P28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q28" s="16">
-        <v>0.91</v>
+      <c r="Q28" s="69">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1677,7 +1694,7 @@
         <v>53</v>
       </c>
       <c r="Q31" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
@@ -1703,12 +1720,12 @@
         <v>53</v>
       </c>
       <c r="Q32" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1730,7 +1747,7 @@
     </row>
     <row r="34" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1791,12 +1808,12 @@
         <v>53</v>
       </c>
       <c r="Q36" s="15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1817,12 +1834,12 @@
         <v>53</v>
       </c>
       <c r="Q37" s="15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1843,84 +1860,84 @@
         <v>53</v>
       </c>
       <c r="Q38" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B39" s="22" t="s">
-        <v>59</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="5"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
+      <c r="I39" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
-        <v>60</v>
+      <c r="P39" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q39" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="G40" s="9"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="I40" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="5" t="s">
-        <v>61</v>
+      <c r="P40" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="Q40" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
-        <v>62</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+      <c r="G41" s="5"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q41" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P41" s="3"/>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1932,23 +1949,21 @@
       <c r="J42" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K42" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q42" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="11" t="s">
-        <v>66</v>
+      <c r="B43" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1957,10 +1972,10 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="J43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -1973,8 +1988,8 @@
       </c>
     </row>
     <row r="44" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="18" t="s">
-        <v>81</v>
+      <c r="B44" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1983,7 +1998,9 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="J44" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="K44" s="5" t="s">
         <v>24</v>
       </c>
@@ -1992,15 +2009,15 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q44" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
-        <v>67</v>
+      <c r="B45" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2010,23 +2027,23 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="20" t="s">
-        <v>24</v>
-      </c>
+      <c r="K45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
-      <c r="P45" s="19" t="s">
-        <v>63</v>
+      <c r="P45" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="Q45" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="22" t="s">
-        <v>68</v>
+      <c r="B46" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2036,17 +2053,23 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
+      <c r="K46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="15"/>
+      <c r="P46" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q46" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="10" t="s">
-        <v>69</v>
+      <c r="B47" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2056,23 +2079,23 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="5" t="s">
+      <c r="K47" s="5"/>
+      <c r="L47" s="20" t="s">
         <v>24</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
-      <c r="P47" s="5" t="s">
-        <v>70</v>
+      <c r="P47" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="Q47" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="10" t="s">
-        <v>71</v>
+      <c r="B48" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2082,23 +2105,17 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q48" s="15">
-        <v>0</v>
-      </c>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="15"/>
     </row>
     <row r="49" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2108,15 +2125,15 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="20"/>
+      <c r="K49" s="3"/>
       <c r="L49" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
       <c r="P49" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Q49" s="15">
         <v>0</v>
@@ -2124,7 +2141,7 @@
     </row>
     <row r="50" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2135,22 +2152,22 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="L50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="Q50" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="18" t="s">
-        <v>96</v>
+      <c r="B51" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2160,179 +2177,185 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N51" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="O51" s="3"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
       <c r="P51" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="Q51" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="15"/>
+      <c r="B52" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q52" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="15"/>
+      <c r="B53" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N53" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O53" s="3"/>
+      <c r="P53" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q53" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="O54" s="34"/>
-      <c r="P54" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q54" s="15">
-        <v>0</v>
-      </c>
+      <c r="B54" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="15"/>
     </row>
     <row r="55" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="O55" s="36"/>
-      <c r="P55" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q55" s="15">
-        <v>0</v>
-      </c>
+      <c r="B55" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="15"/>
     </row>
     <row r="56" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="O56" s="27"/>
-      <c r="P56" s="56" t="s">
-        <v>65</v>
+      <c r="B56" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="O56" s="34"/>
+      <c r="P56" s="54" t="s">
+        <v>59</v>
       </c>
       <c r="Q56" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="56"/>
-      <c r="Q57" s="15"/>
+      <c r="B57" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="O57" s="36"/>
+      <c r="P57" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q57" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="O58" s="36"/>
+      <c r="B58" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="O58" s="27"/>
       <c r="P58" s="56" t="s">
         <v>63</v>
       </c>
@@ -2341,8 +2364,8 @@
       </c>
     </row>
     <row r="59" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="47" t="s">
-        <v>93</v>
+      <c r="B59" s="48" t="s">
+        <v>90</v>
       </c>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
@@ -2361,34 +2384,34 @@
       <c r="Q59" s="15"/>
     </row>
     <row r="60" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="49" t="s">
-        <v>24</v>
-      </c>
+      <c r="B60" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="O60" s="36"/>
       <c r="P60" s="56" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="Q60" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="40" t="s">
-        <v>87</v>
+      <c r="B61" s="47" t="s">
+        <v>91</v>
       </c>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -2402,19 +2425,13 @@
       <c r="L61" s="27"/>
       <c r="M61" s="27"/>
       <c r="N61" s="27"/>
-      <c r="O61" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="P61" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q61" s="15">
-        <v>0</v>
-      </c>
+      <c r="O61" s="27"/>
+      <c r="P61" s="56"/>
+      <c r="Q61" s="15"/>
     </row>
     <row r="62" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="42" t="s">
-        <v>89</v>
+      <c r="B62" s="39" t="s">
+        <v>84</v>
       </c>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
@@ -2428,33 +2445,83 @@
       <c r="L62" s="27"/>
       <c r="M62" s="27"/>
       <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="56"/>
-      <c r="Q62" s="15"/>
-    </row>
-    <row r="63" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q63" s="62">
-        <f>AVERAGE(Q8:Q62)</f>
-        <v>0.54116410256410252</v>
-      </c>
-    </row>
-    <row r="64" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="O62" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="P62" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q62" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="P63" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q63" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="56"/>
+      <c r="Q64" s="15"/>
+    </row>
+    <row r="65" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q65" s="62">
+        <f>AVERAGE(Q8:Q64)</f>
+        <v>0.62195121951219512</v>
+      </c>
+    </row>
+    <row r="66" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3392,6 +3459,8 @@
     <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:Q1"/>

--- a/Desarrollo/SOE/Gestion/SOE - CP.xlsx
+++ b/Desarrollo/SOE/Gestion/SOE - CP.xlsx
@@ -669,6 +669,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -681,9 +684,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="L6" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -920,112 +920,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="68">
         <v>44132</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="69">
         <v>44232</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
     </row>
     <row r="6" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -1601,7 +1601,7 @@
       <c r="P27" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Q27" s="69">
+      <c r="Q27" s="64">
         <v>1</v>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       <c r="P28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q28" s="69">
+      <c r="Q28" s="64">
         <v>1</v>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
         <v>63</v>
       </c>
       <c r="Q46" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
     <row r="65" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q65" s="62">
         <f>AVERAGE(Q8:Q64)</f>
-        <v>0.62195121951219512</v>
+        <v>0.64634146341463417</v>
       </c>
     </row>
     <row r="66" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Desarrollo/SOE/Gestion/SOE - CP.xlsx
+++ b/Desarrollo/SOE/Gestion/SOE - CP.xlsx
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="R62" sqref="R62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2090,7 +2090,7 @@
         <v>61</v>
       </c>
       <c r="Q47" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
         <v>68</v>
       </c>
       <c r="Q49" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2162,7 +2162,7 @@
         <v>70</v>
       </c>
       <c r="Q50" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2188,7 +2188,7 @@
         <v>72</v>
       </c>
       <c r="Q51" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2214,7 +2214,7 @@
         <v>74</v>
       </c>
       <c r="Q52" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2242,7 +2242,7 @@
         <v>75</v>
       </c>
       <c r="Q53" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
     <row r="65" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q65" s="62">
         <f>AVERAGE(Q8:Q64)</f>
-        <v>0.64634146341463417</v>
+        <v>0.79268292682926833</v>
       </c>
     </row>
     <row r="66" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Desarrollo/SOE/Gestion/SOE - CP.xlsx
+++ b/Desarrollo/SOE/Gestion/SOE - CP.xlsx
@@ -904,7 +904,7 @@
   <dimension ref="B1:Q1019"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B49" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="R62" sqref="R62"/>
+      <selection activeCell="R61" sqref="R61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1808,7 +1808,7 @@
         <v>53</v>
       </c>
       <c r="Q36" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
@@ -1834,7 +1834,7 @@
         <v>53</v>
       </c>
       <c r="Q37" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
@@ -1860,7 +1860,7 @@
         <v>53</v>
       </c>
       <c r="Q38" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
@@ -1886,7 +1886,7 @@
         <v>53</v>
       </c>
       <c r="Q39" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
@@ -1912,7 +1912,7 @@
         <v>53</v>
       </c>
       <c r="Q40" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
@@ -2308,7 +2308,7 @@
         <v>59</v>
       </c>
       <c r="Q56" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2406,7 +2406,7 @@
         <v>61</v>
       </c>
       <c r="Q60" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2452,7 +2452,7 @@
         <v>70</v>
       </c>
       <c r="Q62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2478,7 +2478,7 @@
         <v>59</v>
       </c>
       <c r="Q63" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
     <row r="65" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q65" s="62">
         <f>AVERAGE(Q8:Q64)</f>
-        <v>0.79268292682926833</v>
+        <v>0.95121951219512191</v>
       </c>
     </row>
     <row r="66" spans="17:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
